--- a/Parameters-Estimation/Salinity_Estimation/1-Trained-Models/training_test_2016_2019/Results-salinity-test-model-k-10.xlsx
+++ b/Parameters-Estimation/Salinity_Estimation/1-Trained-Models/training_test_2016_2019/Results-salinity-test-model-k-10.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Row</t>
   </si>
@@ -30,37 +30,7 @@
     <t>RMSE</t>
   </si>
   <si>
-    <t>MAE</t>
-  </si>
-  <si>
-    <t>RSE</t>
-  </si>
-  <si>
-    <t>RRSE</t>
-  </si>
-  <si>
-    <t>RAE</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>Corr Coeff</t>
-  </si>
-  <si>
-    <t>Row</t>
-  </si>
-  <si>
-    <t>random_forest</t>
-  </si>
-  <si>
-    <t>lsboost</t>
-  </si>
-  <si>
-    <t>neural_network</t>
-  </si>
-  <si>
-    <t>RMSE</t>
+    <t>NRMSE</t>
   </si>
   <si>
     <t>MAE</t>
@@ -124,121 +94,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
     <col min="7" max="7" width="12.7109375" customWidth="true"/>
     <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>3.3550152842490077</v>
+        <v>3.5516553907255091</v>
       </c>
       <c r="C2" s="0">
-        <v>2.6070442847076145</v>
+        <v>0.2605083192307488</v>
       </c>
       <c r="D2" s="0">
-        <v>0.23508224335219152</v>
+        <v>2.6037999507531082</v>
       </c>
       <c r="E2" s="0">
-        <v>0.4848528058619353</v>
+        <v>0.25407986184299353</v>
       </c>
       <c r="F2" s="0">
-        <v>0.45512425675286339</v>
+        <v>0.50406335102146982</v>
       </c>
       <c r="G2" s="0">
-        <v>0.76491775664780848</v>
+        <v>0.44688294847378912</v>
       </c>
       <c r="H2" s="0">
-        <v>0.87610286509800084</v>
+        <v>0.74592013815700642</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0.86385350322439081</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>3.5114679367270734</v>
+        <v>3.5431633178967785</v>
       </c>
       <c r="C3" s="0">
-        <v>2.6802649597824191</v>
+        <v>0.25988543908726008</v>
       </c>
       <c r="D3" s="0">
-        <v>0.25751838194781129</v>
+        <v>2.7145339253660166</v>
       </c>
       <c r="E3" s="0">
-        <v>0.50746269020274903</v>
+        <v>0.25286629524027981</v>
       </c>
       <c r="F3" s="0">
-        <v>0.46790674208226041</v>
+        <v>0.50285812635402427</v>
       </c>
       <c r="G3" s="0">
-        <v>0.74248161805218871</v>
+        <v>0.46588791275951519</v>
       </c>
       <c r="H3" s="0">
-        <v>0.86361290002342017</v>
+        <v>0.74713370475972019</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.86485943095965434</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>3.4837061843569135</v>
+        <v>3.5097736372422568</v>
       </c>
       <c r="C4" s="0">
-        <v>2.6959578330103886</v>
+        <v>0.25743635869233356</v>
       </c>
       <c r="D4" s="0">
-        <v>0.25346258479705946</v>
+        <v>2.6797141793939949</v>
       </c>
       <c r="E4" s="0">
-        <v>0.50345067762101525</v>
+        <v>0.24812288299118471</v>
       </c>
       <c r="F4" s="0">
-        <v>0.47064632242084198</v>
+        <v>0.49811934613221431</v>
       </c>
       <c r="G4" s="0">
-        <v>0.74653741520294048</v>
+        <v>0.45991189653730707</v>
       </c>
       <c r="H4" s="0">
-        <v>0.86528954569132088</v>
+        <v>0.75187711700881532</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0.86718056517803477</v>
       </c>
     </row>
   </sheetData>

--- a/Parameters-Estimation/Salinity_Estimation/1-Trained-Models/training_test_2016_2019/Results-salinity-test-model-k-10.xlsx
+++ b/Parameters-Estimation/Salinity_Estimation/1-Trained-Models/training_test_2016_2019/Results-salinity-test-model-k-10.xlsx
@@ -13,7 +13,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>random_forest</t>
+  </si>
+  <si>
+    <t>lsboost</t>
+  </si>
+  <si>
+    <t>neural_network</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>NRMSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>RRSE</t>
+  </si>
+  <si>
+    <t>RAE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Corr Coeff</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>random_forest</t>
+  </si>
+  <si>
+    <t>lsboost</t>
+  </si>
+  <si>
+    <t>neural_network</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>NRMSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>RRSE</t>
+  </si>
+  <si>
+    <t>RAE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Corr Coeff</t>
+  </si>
   <si>
     <t>Row</t>
   </si>
@@ -110,118 +182,118 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B2" s="0">
-        <v>3.5516553907255091</v>
+        <v>3.4294406323069455</v>
       </c>
       <c r="C2" s="0">
-        <v>0.2605083192307488</v>
+        <v>0.24489724000178287</v>
       </c>
       <c r="D2" s="0">
-        <v>2.6037999507531082</v>
+        <v>2.5701659599140245</v>
       </c>
       <c r="E2" s="0">
-        <v>0.25407986184299353</v>
+        <v>0.26511098424749086</v>
       </c>
       <c r="F2" s="0">
-        <v>0.50406335102146982</v>
+        <v>0.5148892931956256</v>
       </c>
       <c r="G2" s="0">
-        <v>0.44688294847378912</v>
+        <v>0.47307042828657803</v>
       </c>
       <c r="H2" s="0">
-        <v>0.74592013815700642</v>
+        <v>0.7348890157525092</v>
       </c>
       <c r="I2" s="0">
-        <v>0.86385350322439081</v>
+        <v>0.85968621626487884</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0">
-        <v>3.5431633178967785</v>
+        <v>3.4441550996750858</v>
       </c>
       <c r="C3" s="0">
-        <v>0.25988543908726008</v>
+        <v>0.24594800391138574</v>
       </c>
       <c r="D3" s="0">
-        <v>2.7145339253660166</v>
+        <v>2.5948526922852282</v>
       </c>
       <c r="E3" s="0">
-        <v>0.25286629524027981</v>
+        <v>0.26739085210487901</v>
       </c>
       <c r="F3" s="0">
-        <v>0.50285812635402427</v>
+        <v>0.5170984936207792</v>
       </c>
       <c r="G3" s="0">
-        <v>0.46588791275951519</v>
+        <v>0.47761432282023381</v>
       </c>
       <c r="H3" s="0">
-        <v>0.74713370475972019</v>
+        <v>0.73260914789512099</v>
       </c>
       <c r="I3" s="0">
-        <v>0.86485943095965434</v>
+        <v>0.85797076147681173</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0">
-        <v>3.5097736372422568</v>
+        <v>3.4831372157508604</v>
       </c>
       <c r="C4" s="0">
-        <v>0.25743635869233356</v>
+        <v>0.24873172687379913</v>
       </c>
       <c r="D4" s="0">
-        <v>2.6797141793939949</v>
+        <v>2.6095982674769935</v>
       </c>
       <c r="E4" s="0">
-        <v>0.24812288299118471</v>
+        <v>0.2734779469461604</v>
       </c>
       <c r="F4" s="0">
-        <v>0.49811934613221431</v>
+        <v>0.52295118983147981</v>
       </c>
       <c r="G4" s="0">
-        <v>0.45991189653730707</v>
+        <v>0.48032842598714903</v>
       </c>
       <c r="H4" s="0">
-        <v>0.75187711700881532</v>
+        <v>0.72652205305383966</v>
       </c>
       <c r="I4" s="0">
-        <v>0.86718056517803477</v>
+        <v>0.85355535309139108</v>
       </c>
     </row>
   </sheetData>
